--- a/結合テスト結果20141115.xlsx
+++ b/結合テスト結果20141115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>V+</t>
     <phoneticPr fontId="2"/>
@@ -142,6 +142,13 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -576,11 +583,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -602,21 +607,27 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
@@ -670,8 +681,8 @@
         <v>0.55500000000000005</v>
       </c>
       <c r="E8" s="4">
-        <f>(D8-C8)</f>
-        <v>6.0000000000000053E-3</v>
+        <f>(D8-C8)/D8</f>
+        <v>1.081081081081082E-2</v>
       </c>
       <c r="F8" s="2">
         <v>0.85099999999999998</v>
@@ -681,8 +692,8 @@
         <v>0.84</v>
       </c>
       <c r="H8" s="4">
-        <f>(G8-F8)</f>
-        <v>-1.100000000000001E-2</v>
+        <f>(G8-F8)/G8</f>
+        <v>-1.3095238095238108E-2</v>
       </c>
       <c r="I8" s="2">
         <v>1.1930000000000001</v>
@@ -692,8 +703,8 @@
         <v>1.21</v>
       </c>
       <c r="K8" s="4">
-        <f>(J8-I8)</f>
-        <v>1.6999999999999904E-2</v>
+        <f>(J8-I8)/J8</f>
+        <v>1.4049586776859425E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -708,8 +719,8 @@
         <v>-0.55999999999999994</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E13" si="0">(D9-C9)</f>
-        <v>-9.9999999999988987E-4</v>
+        <f t="shared" ref="E9:E13" si="0">(D9-C9)/D9</f>
+        <v>1.7857142857140892E-3</v>
       </c>
       <c r="F9" s="2">
         <v>-0.81399999999999995</v>
@@ -719,8 +730,8 @@
         <v>-0.83333333333333337</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" ref="H9:H13" si="1">(G9-F9)</f>
-        <v>-1.9333333333333425E-2</v>
+        <f t="shared" ref="H9:H13" si="1">(G9-F9)/G9</f>
+        <v>2.3200000000000109E-2</v>
       </c>
       <c r="I9" s="2">
         <v>-1.2370000000000001</v>
@@ -730,8 +741,8 @@
         <v>-1.2416666666666667</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="K9:K13" si="2">(J9-I9)</f>
-        <v>-4.6666666666665968E-3</v>
+        <f t="shared" ref="K9:K13" si="2">(J9-I9)/J9</f>
+        <v>3.75838926174491E-3</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -747,7 +758,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>1.6400000000000005E-2</v>
+        <v>0.49249249249249261</v>
       </c>
       <c r="F10" s="2">
         <v>2.6100000000000002E-2</v>
@@ -758,7 +769,7 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>2.4299999999999999E-2</v>
+        <v>0.4821428571428571</v>
       </c>
       <c r="I10" s="2">
         <v>0.35699999999999998</v>
@@ -769,7 +780,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>-0.28439999999999999</v>
+        <v>-3.9173553719008263</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -785,7 +796,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>-1.7599999999999998E-2</v>
+        <v>0.52380952380952372</v>
       </c>
       <c r="F11" s="2">
         <v>-2.3300000000000001E-2</v>
@@ -796,7 +807,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>-2.6700000000000002E-2</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="I11" s="2">
         <v>-0.36</v>
@@ -807,7 +818,7 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="2"/>
-        <v>0.28549999999999998</v>
+        <v>-3.8322147651006708</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -823,7 +834,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>9.6300000000000038E-2</v>
+        <v>0.48198198198198211</v>
       </c>
       <c r="F12" s="2">
         <v>0.1588</v>
@@ -834,7 +845,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0.14360000000000001</v>
+        <v>0.47486772486772488</v>
       </c>
       <c r="I12" s="2">
         <v>0.23</v>
@@ -845,7 +856,7 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>0.20559999999999998</v>
+        <v>0.47199265381083561</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -861,7 +872,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>-0.11260000000000001</v>
+        <v>0.55853174603174605</v>
       </c>
       <c r="F13" s="2">
         <v>-0.13500000000000001</v>
@@ -872,7 +883,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>-0.16500000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I13" s="2">
         <v>-0.23</v>
@@ -883,7 +894,7 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>-0.21699999999999994</v>
+        <v>0.48545861297539145</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -949,13 +960,21 @@
       <c r="F22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
@@ -1008,8 +1027,8 @@
         <v>0.84</v>
       </c>
       <c r="H25" s="4">
-        <f>(G25-F25)</f>
-        <v>8.0000000000000071E-3</v>
+        <f>(G25-F25)/G25</f>
+        <v>9.5238095238095333E-3</v>
       </c>
       <c r="I25" s="2">
         <v>1.1919999999999999</v>
@@ -1019,8 +1038,8 @@
         <v>1.2066666666666668</v>
       </c>
       <c r="K25" s="4">
-        <f>(J25-I25)</f>
-        <v>1.4666666666666828E-2</v>
+        <f>(J25-I25)/J25</f>
+        <v>1.2154696132596817E-2</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -1038,8 +1057,8 @@
         <v>-0.84833333333333327</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" ref="H26:H30" si="3">(G26-F26)</f>
-        <v>-1.3333333333332975E-3</v>
+        <f t="shared" ref="H26:H30" si="3">(G26-F26)/G26</f>
+        <v>1.5717092337917064E-3</v>
       </c>
       <c r="I26" s="2">
         <v>-1.2330000000000001</v>
@@ -1049,8 +1068,8 @@
         <v>-1.2383333333333333</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K30" si="4">(J26-I26)</f>
-        <v>-5.33333333333319E-3</v>
+        <f t="shared" ref="K26:K30" si="4">(J26-I26)/J26</f>
+        <v>4.3068640646028453E-3</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -1069,7 +1088,7 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="3"/>
-        <v>2.46E-2</v>
+        <v>0.48809523809523808</v>
       </c>
       <c r="I27" s="2">
         <v>3.6200000000000003E-2</v>
@@ -1080,7 +1099,7 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="4"/>
-        <v>3.6200000000000003E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -1099,7 +1118,7 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" si="3"/>
-        <v>-2.6700000000000002E-2</v>
+        <v>0.5245579567779961</v>
       </c>
       <c r="I28" s="2">
         <v>-3.5799999999999998E-2</v>
@@ -1110,7 +1129,7 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="4"/>
-        <v>-3.8499999999999993E-2</v>
+        <v>0.51816958277254366</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -1129,7 +1148,7 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" si="3"/>
-        <v>4.400000000000015E-3</v>
+        <v>1.45502645502646E-2</v>
       </c>
       <c r="I29" s="2">
         <v>0.42299999999999999</v>
@@ -1140,7 +1159,7 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="4"/>
-        <v>1.1400000000000021E-2</v>
+        <v>2.6243093922651981E-2</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -1159,7 +1178,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="3"/>
-        <v>-5.2400000000000002E-2</v>
+        <v>0.17157825802226589</v>
       </c>
       <c r="I30" s="2">
         <v>-0.372</v>
@@ -1170,37 +1189,42 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="4"/>
-        <v>-7.3799999999999977E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
+        <v>0.16554508748317626</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>662</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>554</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I33" s="2">
         <v>732</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J33" s="2">
         <v>579</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F33" s="2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F34" s="2">
         <v>322</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <v>442</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I34" s="2">
         <v>245</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J34" s="2">
         <v>418</v>
       </c>
     </row>
